--- a/natmiOut/OldD4/LR-pairs_lrc2p/Rspo2-Znrf3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Rspo2-Znrf3.xlsx
@@ -534,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.63624103733127</v>
+        <v>1.876175666666667</v>
       </c>
       <c r="H2">
-        <v>1.63624103733127</v>
+        <v>5.628527</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.873680454272913</v>
+        <v>1.063418</v>
       </c>
       <c r="N2">
-        <v>0.873680454272913</v>
+        <v>3.190254</v>
       </c>
       <c r="O2">
-        <v>0.07860441395408334</v>
+        <v>0.0908628824358815</v>
       </c>
       <c r="P2">
-        <v>0.07860441395408334</v>
+        <v>0.1028742253445915</v>
       </c>
       <c r="Q2">
-        <v>1.429551812795566</v>
+        <v>1.995158975095333</v>
       </c>
       <c r="R2">
-        <v>1.429551812795566</v>
+        <v>17.956430775858</v>
       </c>
       <c r="S2">
-        <v>0.07860441395408334</v>
+        <v>0.0908628824358815</v>
       </c>
       <c r="T2">
-        <v>0.07860441395408334</v>
+        <v>0.1028742253445915</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.63624103733127</v>
+        <v>1.876175666666667</v>
       </c>
       <c r="H3">
-        <v>1.63624103733127</v>
+        <v>5.628527</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,34 +614,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.61592569952659</v>
+        <v>1.853215333333333</v>
       </c>
       <c r="N3">
-        <v>1.61592569952659</v>
+        <v>5.559646</v>
       </c>
       <c r="O3">
-        <v>0.1453836949005988</v>
+        <v>0.1583464704951765</v>
       </c>
       <c r="P3">
-        <v>0.1453836949005988</v>
+        <v>0.1792786014656379</v>
       </c>
       <c r="Q3">
-        <v>2.644043942843646</v>
+        <v>3.476957513493555</v>
       </c>
       <c r="R3">
-        <v>2.644043942843646</v>
+        <v>31.292617621442</v>
       </c>
       <c r="S3">
-        <v>0.1453836949005988</v>
+        <v>0.1583464704951765</v>
       </c>
       <c r="T3">
-        <v>0.1453836949005988</v>
+        <v>0.1792786014656379</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.63624103733127</v>
+        <v>1.876175666666667</v>
       </c>
       <c r="H4">
-        <v>1.63624103733127</v>
+        <v>5.628527</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.14499616344572</v>
+        <v>2.214728</v>
       </c>
       <c r="N4">
-        <v>2.14499616344572</v>
+        <v>6.644184</v>
       </c>
       <c r="O4">
-        <v>0.1929837911982637</v>
+        <v>0.1892356250237018</v>
       </c>
       <c r="P4">
-        <v>0.1929837911982637</v>
+        <v>0.2142510540060226</v>
       </c>
       <c r="Q4">
-        <v>3.509730747548019</v>
+        <v>4.155218781885333</v>
       </c>
       <c r="R4">
-        <v>3.509730747548019</v>
+        <v>37.396969036968</v>
       </c>
       <c r="S4">
-        <v>0.1929837911982637</v>
+        <v>0.1892356250237018</v>
       </c>
       <c r="T4">
-        <v>0.1929837911982637</v>
+        <v>0.2142510540060226</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.63624103733127</v>
+        <v>1.876175666666667</v>
       </c>
       <c r="H5">
-        <v>1.63624103733127</v>
+        <v>5.628527</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,34 +738,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.43413883415691</v>
+        <v>2.472753</v>
       </c>
       <c r="N5">
-        <v>2.43413883415691</v>
+        <v>7.418259000000001</v>
       </c>
       <c r="O5">
-        <v>0.2189977532472213</v>
+        <v>0.2112823604001186</v>
       </c>
       <c r="P5">
-        <v>0.2189977532472213</v>
+        <v>0.239212190637656</v>
       </c>
       <c r="Q5">
-        <v>3.982837851009231</v>
+        <v>4.639319008277001</v>
       </c>
       <c r="R5">
-        <v>3.982837851009231</v>
+        <v>41.75387107449301</v>
       </c>
       <c r="S5">
-        <v>0.2189977532472213</v>
+        <v>0.2112823604001186</v>
       </c>
       <c r="T5">
-        <v>0.2189977532472213</v>
+        <v>0.239212190637656</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.63624103733127</v>
+        <v>1.876175666666667</v>
       </c>
       <c r="H6">
-        <v>1.63624103733127</v>
+        <v>5.628527</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -800,34 +800,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.04616207506645</v>
+        <v>4.0994325</v>
       </c>
       <c r="N6">
-        <v>4.04616207506645</v>
+        <v>8.198865</v>
       </c>
       <c r="O6">
-        <v>0.3640303466998329</v>
+        <v>0.3502726616451215</v>
       </c>
       <c r="P6">
-        <v>0.3640303466998329</v>
+        <v>0.2643839285460921</v>
       </c>
       <c r="Q6">
-        <v>6.620496430917171</v>
+        <v>7.6912555036425</v>
       </c>
       <c r="R6">
-        <v>6.620496430917171</v>
+        <v>46.147533021855</v>
       </c>
       <c r="S6">
-        <v>0.3640303466998329</v>
+        <v>0.3502726616451215</v>
       </c>
       <c r="T6">
-        <v>0.3640303466998329</v>
+        <v>0.2643839285460921</v>
       </c>
     </row>
   </sheetData>
